--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna1-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna1-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>21.78783233333333</v>
+        <v>17.919643</v>
       </c>
       <c r="H2">
-        <v>65.363497</v>
+        <v>53.75892899999999</v>
       </c>
       <c r="I2">
-        <v>0.9024488799587679</v>
+        <v>0.8982899767221961</v>
       </c>
       <c r="J2">
-        <v>0.9024488799587679</v>
+        <v>0.8982899767221962</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.003058333333333333</v>
+        <v>26.097779</v>
       </c>
       <c r="N2">
-        <v>0.009175000000000001</v>
+        <v>78.29333700000001</v>
       </c>
       <c r="O2">
-        <v>0.0001134234803787887</v>
+        <v>0.9922055808976035</v>
       </c>
       <c r="P2">
-        <v>0.0001134234803787887</v>
+        <v>0.9922055808976036</v>
       </c>
       <c r="Q2">
-        <v>0.06663445388611111</v>
+        <v>467.662882772897</v>
       </c>
       <c r="R2">
-        <v>0.599710084975</v>
+        <v>4208.965944956073</v>
       </c>
       <c r="S2">
-        <v>0.0001023588928288631</v>
+        <v>0.8912883281681413</v>
       </c>
       <c r="T2">
-        <v>0.0001023588928288632</v>
+        <v>0.8912883281681415</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,25 +587,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>21.78783233333333</v>
+        <v>17.919643</v>
       </c>
       <c r="H3">
-        <v>65.363497</v>
+        <v>53.75892899999999</v>
       </c>
       <c r="I3">
-        <v>0.9024488799587679</v>
+        <v>0.8982899767221961</v>
       </c>
       <c r="J3">
-        <v>0.9024488799587679</v>
+        <v>0.8982899767221962</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.097779</v>
+        <v>0.205015</v>
       </c>
       <c r="N3">
-        <v>78.29333699999999</v>
+        <v>0.6150450000000001</v>
       </c>
       <c r="O3">
-        <v>0.9678804112271815</v>
+        <v>0.007794419102396499</v>
       </c>
       <c r="P3">
-        <v>0.9678804112271815</v>
+        <v>0.007794419102396499</v>
       </c>
       <c r="Q3">
-        <v>568.6140331243876</v>
+        <v>3.673795609645</v>
       </c>
       <c r="R3">
-        <v>5117.526298119488</v>
+        <v>33.064160486805</v>
       </c>
       <c r="S3">
-        <v>0.8734625930460016</v>
+        <v>0.007001648554054792</v>
       </c>
       <c r="T3">
-        <v>0.8734625930460016</v>
+        <v>0.007001648554054793</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>21.78783233333333</v>
+        <v>1.359006333333333</v>
       </c>
       <c r="H4">
-        <v>65.363497</v>
+        <v>4.077019</v>
       </c>
       <c r="I4">
-        <v>0.9024488799587679</v>
+        <v>0.06812533974785755</v>
       </c>
       <c r="J4">
-        <v>0.9024488799587679</v>
+        <v>0.06812533974785755</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8630093333333333</v>
+        <v>26.097779</v>
       </c>
       <c r="N4">
-        <v>2.589028</v>
+        <v>78.29333700000001</v>
       </c>
       <c r="O4">
-        <v>0.03200616529243973</v>
+        <v>0.9922055808976035</v>
       </c>
       <c r="P4">
-        <v>0.03200616529243973</v>
+        <v>0.9922055808976036</v>
       </c>
       <c r="Q4">
-        <v>18.80310265676844</v>
+        <v>35.46704694693367</v>
       </c>
       <c r="R4">
-        <v>169.227923910916</v>
+        <v>319.203422522403</v>
       </c>
       <c r="S4">
-        <v>0.02888392801993742</v>
+        <v>0.06759434229836959</v>
       </c>
       <c r="T4">
-        <v>0.02888392801993742</v>
+        <v>0.06759434229836959</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>4.077019</v>
       </c>
       <c r="I5">
-        <v>0.05628984676448105</v>
+        <v>0.06812533974785755</v>
       </c>
       <c r="J5">
-        <v>0.05628984676448104</v>
+        <v>0.06812533974785755</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.003058333333333333</v>
+        <v>0.205015</v>
       </c>
       <c r="N5">
-        <v>0.009175000000000001</v>
+        <v>0.6150450000000001</v>
       </c>
       <c r="O5">
-        <v>0.0001134234803787887</v>
+        <v>0.007794419102396499</v>
       </c>
       <c r="P5">
-        <v>0.0001134234803787887</v>
+        <v>0.007794419102396499</v>
       </c>
       <c r="Q5">
-        <v>0.004156294369444444</v>
+        <v>0.2786166834283333</v>
       </c>
       <c r="R5">
-        <v>0.03740664932500001</v>
+        <v>2.507550150855</v>
       </c>
       <c r="S5">
-        <v>6.384590330016139E-06</v>
+        <v>0.0005309974494879524</v>
       </c>
       <c r="T5">
-        <v>6.384590330016139E-06</v>
+        <v>0.0005309974494879524</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.359006333333333</v>
+        <v>0.669968</v>
       </c>
       <c r="H6">
-        <v>4.077019</v>
+        <v>2.009904</v>
       </c>
       <c r="I6">
-        <v>0.05628984676448105</v>
+        <v>0.03358468352994624</v>
       </c>
       <c r="J6">
-        <v>0.05628984676448104</v>
+        <v>0.03358468352994624</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,30 +803,30 @@
         <v>26.097779</v>
       </c>
       <c r="N6">
-        <v>78.29333699999999</v>
+        <v>78.29333700000001</v>
       </c>
       <c r="O6">
-        <v>0.9678804112271815</v>
+        <v>0.9922055808976035</v>
       </c>
       <c r="P6">
-        <v>0.9678804112271815</v>
+        <v>0.9922055808976036</v>
       </c>
       <c r="Q6">
-        <v>35.46704694693366</v>
+        <v>17.484676801072</v>
       </c>
       <c r="R6">
-        <v>319.2034225224029</v>
+        <v>157.362091209648</v>
       </c>
       <c r="S6">
-        <v>0.05448184003432095</v>
+        <v>0.03332291043109248</v>
       </c>
       <c r="T6">
-        <v>0.05448184003432094</v>
+        <v>0.03332291043109249</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,232 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.359006333333333</v>
+        <v>0.669968</v>
       </c>
       <c r="H7">
-        <v>4.077019</v>
+        <v>2.009904</v>
       </c>
       <c r="I7">
-        <v>0.05628984676448105</v>
+        <v>0.03358468352994624</v>
       </c>
       <c r="J7">
-        <v>0.05628984676448104</v>
+        <v>0.03358468352994624</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8630093333333333</v>
+        <v>0.205015</v>
       </c>
       <c r="N7">
-        <v>2.589028</v>
+        <v>0.6150450000000001</v>
       </c>
       <c r="O7">
-        <v>0.03200616529243973</v>
+        <v>0.007794419102396499</v>
       </c>
       <c r="P7">
-        <v>0.03200616529243973</v>
+        <v>0.007794419102396499</v>
       </c>
       <c r="Q7">
-        <v>1.172835149725778</v>
+        <v>0.13735348952</v>
       </c>
       <c r="R7">
-        <v>10.555516347532</v>
+        <v>1.23618140568</v>
       </c>
       <c r="S7">
-        <v>0.001801622139830084</v>
+        <v>0.000261773098853754</v>
       </c>
       <c r="T7">
-        <v>0.001801622139830084</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.9961713333333333</v>
-      </c>
-      <c r="H8">
-        <v>2.988514</v>
-      </c>
-      <c r="I8">
-        <v>0.04126127327675105</v>
-      </c>
-      <c r="J8">
-        <v>0.04126127327675105</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.003058333333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.009175000000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.0001134234803787887</v>
-      </c>
-      <c r="P8">
-        <v>0.0001134234803787887</v>
-      </c>
-      <c r="Q8">
-        <v>0.003046623994444444</v>
-      </c>
-      <c r="R8">
-        <v>0.02741961595</v>
-      </c>
-      <c r="S8">
-        <v>4.679997219909411E-06</v>
-      </c>
-      <c r="T8">
-        <v>4.679997219909411E-06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.9961713333333333</v>
-      </c>
-      <c r="H9">
-        <v>2.988514</v>
-      </c>
-      <c r="I9">
-        <v>0.04126127327675105</v>
-      </c>
-      <c r="J9">
-        <v>0.04126127327675105</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>26.097779</v>
-      </c>
-      <c r="N9">
-        <v>78.29333699999999</v>
-      </c>
-      <c r="O9">
-        <v>0.9678804112271815</v>
-      </c>
-      <c r="P9">
-        <v>0.9678804112271815</v>
-      </c>
-      <c r="Q9">
-        <v>25.99785930346867</v>
-      </c>
-      <c r="R9">
-        <v>233.980733731218</v>
-      </c>
-      <c r="S9">
-        <v>0.03993597814685892</v>
-      </c>
-      <c r="T9">
-        <v>0.03993597814685892</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.9961713333333333</v>
-      </c>
-      <c r="H10">
-        <v>2.988514</v>
-      </c>
-      <c r="I10">
-        <v>0.04126127327675105</v>
-      </c>
-      <c r="J10">
-        <v>0.04126127327675105</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.8630093333333333</v>
-      </c>
-      <c r="N10">
-        <v>2.589028</v>
-      </c>
-      <c r="O10">
-        <v>0.03200616529243973</v>
-      </c>
-      <c r="P10">
-        <v>0.03200616529243973</v>
-      </c>
-      <c r="Q10">
-        <v>0.8597051582657778</v>
-      </c>
-      <c r="R10">
-        <v>7.737346424391999</v>
-      </c>
-      <c r="S10">
-        <v>0.00132061513267222</v>
-      </c>
-      <c r="T10">
-        <v>0.00132061513267222</v>
+        <v>0.0002617730988537541</v>
       </c>
     </row>
   </sheetData>
